--- a/biology/Médecine/Médecine_hyperbare/Médecine_hyperbare.xlsx
+++ b/biology/Médecine/Médecine_hyperbare/Médecine_hyperbare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_hyperbare</t>
+          <t>Médecine_hyperbare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine hyperbare, aussi connue sous le nom d'oxygénothérapie hyperbare, est l'utilisation médicale de l'oxygène à une pression supérieure à la pression atmosphérique. L'équipement nécessaire consiste en une chambre de pression, qui peut être constituée de parois rigides ou flexibles, et un moyen de distribution d'oxygène à 100%. Le traitement est effectué selon un programme prédéterminé par un personnel qualifié qui surveille le patient et peut le modifier si nécessaire. L'oxygénothérapie hyperbare, au début, était utilisée pour traiter les accidents de décompression, elle a aussi démontré une grande efficacité pour traiter la gangrène gazeuse et l'intoxication par le monoxyde de carbone. Des recherches plus récentes ont étudié son éventuelle efficacité sur d'autres maladies comme la paralysie cérébrale et la sclérose en plaques, mais aucune preuve significative n'a été trouvée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_hyperbare</t>
+          <t>Médecine_hyperbare</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,52 @@
           <t>Utilisation de l'oxygénothérapie hyperbare</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs utilisations de l'oxygène en milieu hyperbare sont envisagées :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plusieurs utilisations de l'oxygène en milieu hyperbare sont envisagées :
 L'augmentation de la pression est utilisée dans certains cas, notamment lors du traitement de l'accident de décompression consécutif à un accident de plongée ;
 Dans d'autres cas, l'augmentation partielle de la pression, combinée à l'utilisation de dioxygène à plus ou moins grande concentration peut être utilisée pour faciliter certains traitements, notamment de la peau.
 L'avantage de l'utilisation de dioxygène sous environnement hyperbare se manifeste pour le transport de ce gaz par le sang :
 à la pression atmosphérique, cette capacité de transport est limitée par la capacité de fixation du dioxygène sur les globules rouges, le transport du gaz par le plasma étant très restreint
-en revanche, lorsque l'on augmente cette pression environnante, la capacité de transport de l'oxygène par le plasma est augmentée.
-Pathologies nécessitant une utilisation
-L'oxygénothérapie hyperbare est particulièrement indiquée lors de :
+en revanche, lorsque l'on augmente cette pression environnante, la capacité de transport de l'oxygène par le plasma est augmentée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Utilisation de l'oxygénothérapie hyperbare</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pathologies nécessitant une utilisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'oxygénothérapie hyperbare est particulièrement indiquée lors de :
 la gangrène de Fournier
 certaines blessures (traitement post-chirurgical ou du diabète)
 intoxication au monoxyde de carbone
@@ -532,29 +580,174 @@
 Traitement préventif des lésions survenant après extraction dentaire
 Lésions de radionécrose des tissus mous
 Mal aigu des montagnes
-Ostéonécrose de la tête fémorale
-Traitement utile
-Dans ce cas, l'utilisation du caisson hyperbare peut prévenir certaines complications :
+Ostéonécrose de la tête fémorale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation de l'oxygénothérapie hyperbare</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traitement utile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce cas, l'utilisation du caisson hyperbare peut prévenir certaines complications :
 Greffes à vascularisation compromise
 Écrasements de membre
 Surdités brusques
 Ischémie critique chronique chez les diabétiques et les patients artériosclérotiques
 Ostéomyélites
-Cela permettrait de rallonger les télomères, permettant ainsi, en théorie, le rajeunissement cellulaire[1].
-Les problèmes de sommeils et de douleurs peuvent être améliorés pour les personnes ayant un covid long[2].
-Traitement déconseillé
-Autisme
-La première étude scientifique pour les enfants affectés par l'autisme fut publiée le 12 mars 2009 dans la revue BMC Pediatrics, « « Hyperbaric treatment for children with autism: a multicenter, randomized, double-blind, controlled trial »[3] et fut contestée[4], la majorité des auteurs étaient cependant déjà des pratiquants de la thérapie hyperbarique sur des enfants autistes, parmi eux, entre autres, Dan Rossignol (en) et Anju Usman[5],[6]. L'étude a par ailleurs été en partie financée par un centre de médecine hyperbarique.
-La FDA publie le 23 août 2013 une mise en garde des consommateurs « Oxygénothérapie hyperbare : Ne vous trompez pas. L'oxygénothérapie hyperbare (OHB) n'a pas été cliniquement prouvée pour guérir ou être efficace dans le traitement du cancer, de l'autisme ou du diabète. Mais faites une recherche rapide sur Internet, et vous verrez toutes sortes d'allégations pour ces maladies et d'autres pour lesquelles l'appareil n'a pas été autorisé ou approuvé par la FDA. »[7].
-De nouveau, la FDA publie le 25 avril 2014 une mise en garde des consommateurs « Sensibilisation et vigilance sur les faux traitements de l'autisme », parmi ces faux traitements figure l'oxygénothérapie hyperbare[8].
-Paralysie cérébrale
-L'article publié en décembre 2007 « Oxygénothérapie hyperbare pour le traitement de la paralysie cérébrale: Une revue et comparaison des thérapies actuellement acceptées »[9] tenta de confirmer son efficacité pour la paralysie cérébrale et la nécessité d'offrir ce traitement aux enfants atteints de paralysie cérébrale en l'absence de solutions plus efficaces.
-Selon un rapport publié en janvier 2007 par l’Agence d’évaluation des technologies et des modes d’intervention en santé (AETMIS)[10], à ce jour, l’efficacité de l’oxygénothérapie hyperbare (OHB) dans la prise en charge de la paralysie cérébrale n’a pas été démontrée scientifiquement. Pour réaliser son évaluation, l’AETMIS a procédé à une revue rigoureuse et exhaustive de la documentation scientifique et à un examen approfondi des enjeux contextuels de ce dossier. Au terme de cette étude, l’AETMIS en vient aux conclusions suivantes :
+Cela permettrait de rallonger les télomères, permettant ainsi, en théorie, le rajeunissement cellulaire.
+Les problèmes de sommeils et de douleurs peuvent être améliorés pour les personnes ayant un covid long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation de l'oxygénothérapie hyperbare</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traitement déconseillé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autisme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première étude scientifique pour les enfants affectés par l'autisme fut publiée le 12 mars 2009 dans la revue BMC Pediatrics, « « Hyperbaric treatment for children with autism: a multicenter, randomized, double-blind, controlled trial » et fut contestée, la majorité des auteurs étaient cependant déjà des pratiquants de la thérapie hyperbarique sur des enfants autistes, parmi eux, entre autres, Dan Rossignol (en) et Anju Usman,. L'étude a par ailleurs été en partie financée par un centre de médecine hyperbarique.
+La FDA publie le 23 août 2013 une mise en garde des consommateurs « Oxygénothérapie hyperbare : Ne vous trompez pas. L'oxygénothérapie hyperbare (OHB) n'a pas été cliniquement prouvée pour guérir ou être efficace dans le traitement du cancer, de l'autisme ou du diabète. Mais faites une recherche rapide sur Internet, et vous verrez toutes sortes d'allégations pour ces maladies et d'autres pour lesquelles l'appareil n'a pas été autorisé ou approuvé par la FDA. ».
+De nouveau, la FDA publie le 25 avril 2014 une mise en garde des consommateurs « Sensibilisation et vigilance sur les faux traitements de l'autisme », parmi ces faux traitements figure l'oxygénothérapie hyperbare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation de l'oxygénothérapie hyperbare</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement déconseillé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Paralysie cérébrale</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'article publié en décembre 2007 « Oxygénothérapie hyperbare pour le traitement de la paralysie cérébrale: Une revue et comparaison des thérapies actuellement acceptées » tenta de confirmer son efficacité pour la paralysie cérébrale et la nécessité d'offrir ce traitement aux enfants atteints de paralysie cérébrale en l'absence de solutions plus efficaces.
+Selon un rapport publié en janvier 2007 par l’Agence d’évaluation des technologies et des modes d’intervention en santé (AETMIS), à ce jour, l’efficacité de l’oxygénothérapie hyperbare (OHB) dans la prise en charge de la paralysie cérébrale n’a pas été démontrée scientifiquement. Pour réaliser son évaluation, l’AETMIS a procédé à une revue rigoureuse et exhaustive de la documentation scientifique et à un examen approfondi des enjeux contextuels de ce dossier. Au terme de cette étude, l’AETMIS en vient aux conclusions suivantes :
 l’efficacité de l’oxygénothérapie hyperbare pour le traitement de la paralysie cérébrale n’a pas été démontrée scientifiquement à ce jour, et l’incertitude persiste;
 en l’absence de cette démonstration scientifique, ce traitement doit demeurer expérimental pour le moment;
-même si des études sont actuellement en cours sur le sujet aux États-Unis, d’autres études comparatives rigoureuses restent nécessaires pour répondre à la question de l’efficacité de l’OHB pour le traitement de la paralysie cérébrale.
-Cas des accidents de plongée
-Initialement, cette thérapeutique a été développée dans le cadre du traitement des accidents de plongée tels que les accidents de décompression avec pénétration de bulles gazeuses dans les tissus.
+même si des études sont actuellement en cours sur le sujet aux États-Unis, d’autres études comparatives rigoureuses restent nécessaires pour répondre à la question de l’efficacité de l’OHB pour le traitement de la paralysie cérébrale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation de l'oxygénothérapie hyperbare</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cas des accidents de plongée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, cette thérapeutique a été développée dans le cadre du traitement des accidents de plongée tels que les accidents de décompression avec pénétration de bulles gazeuses dans les tissus.
 Les traitements en caisson de recompression peuvent se dérouler de plusieurs manières :
 l'augmentation de la pression dans le caisson réduit la taille des bulles, leur permettant ainsi de repasser dans le circuit ventilatoire ;
 la haute concentration en oxygène respirée permet d'alimenter correctement les tissus du corps humain ;
@@ -565,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M%C3%A9decine_hyperbare</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Complications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les risques liés à cette thérapie sont les mêmes que ceux liés à la plongée :
 les variations de pression peuvent être sources de barotraumatismes au niveau des cavités internes du corps contenant de l'air (poumons, oreilles, dents, etc.)
@@ -597,36 +792,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9decine_hyperbare</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situation en France
-En France, la médecine hyperbare est une compétence acquise au travers d'une formation universitaire complémentaire d'une durée d'une année accessible aux médecins : le diplôme inter-universitaire de médecine hyperbare.
-Situation en Grande-Bretagne
-En Grande-Bretagne, la plupart des caissons de recompression sont financés par le National Health Service mais certaines unités de traitement sont activées par des organismes à but non lucratif, comme les Multiple sclerosis therapy centres.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Situation en France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la médecine hyperbare est une compétence acquise au travers d'une formation universitaire complémentaire d'une durée d'une année accessible aux médecins : le diplôme inter-universitaire de médecine hyperbare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Médecine_hyperbare</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9decine_hyperbare</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Situation en Grande-Bretagne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Grande-Bretagne, la plupart des caissons de recompression sont financés par le National Health Service mais certaines unités de traitement sont activées par des organismes à but non lucratif, comme les Multiple sclerosis therapy centres.
 </t>
         </is>
       </c>
